--- a/Parrot-PM-Spec/Backlog.xlsx
+++ b/Parrot-PM-Spec/Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Students app" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t>change UI skin/theme</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>get credits when playing exercises</t>
+  </si>
+  <si>
+    <t>invite students from Wechat 微信</t>
+  </si>
+  <si>
+    <t>参考 "跟谁学” mobile app</t>
   </si>
 </sst>
 </file>
@@ -559,17 +565,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="79.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="79.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -577,7 +583,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -585,47 +591,47 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -633,27 +639,27 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -661,12 +667,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -674,7 +680,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -682,12 +688,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -695,7 +701,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -703,12 +709,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -721,19 +727,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="67.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.140625" customWidth="1"/>
+    <col min="1" max="1" width="67.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -741,37 +747,37 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -779,17 +785,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -797,7 +803,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -805,27 +811,27 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -833,12 +839,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -846,12 +852,20 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>56</v>
       </c>
       <c r="B20" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -867,13 +881,13 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -881,7 +895,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -889,7 +903,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -897,17 +911,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>42</v>
       </c>
